--- a/BalanceSheet/TDG_bal.xlsx
+++ b/BalanceSheet/TDG_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1000000.0</v>
+        <v>1284000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>64000000.0</v>
+        <v>1283000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>1344000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-28000000.0</v>
+        <v>1313000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-69000000.0</v>
+        <v>1294000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1233000000.0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-20000000.0</v>
+        <v>197000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>218000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-36000000.0</v>
+        <v>231000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2000000.0</v>
+        <v>266000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>265000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>276000000.0</v>
@@ -3276,19 +3276,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>5000000.0</v>
+        <v>419000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>41000000.0</v>
+        <v>413000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>360000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>372000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>435000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>441000000.0</v>
